--- a/raw_data/20200818_saline/20200818_Sensor3_Test_26.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_26.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F44F543-EC1A-4137-B49F-83C85880AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>23056.952818</v>
+        <v>23056.952818000002</v>
       </c>
       <c r="B2" s="1">
-        <v>6.404709</v>
+        <v>6.4047090000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.350000</v>
+        <v>1143.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-259.477000</v>
+        <v>-259.47699999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>23067.009738</v>
+        <v>23067.009738000001</v>
       </c>
       <c r="G2" s="1">
-        <v>6.407503</v>
+        <v>6.4075030000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1164.450000</v>
+        <v>1164.45</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.416000</v>
+        <v>-217.416</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>23077.087912</v>
+        <v>23077.087911999999</v>
       </c>
       <c r="L2" s="1">
-        <v>6.410302</v>
+        <v>6.4103019999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1191.930000</v>
+        <v>1191.93</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.446000</v>
+        <v>-150.446</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>23087.296607</v>
@@ -526,1071 +942,1071 @@
         <v>6.413138</v>
       </c>
       <c r="R2" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.131000</v>
+        <v>-128.131</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>23098.218476</v>
+        <v>23098.218475999998</v>
       </c>
       <c r="V2" s="1">
-        <v>6.416172</v>
+        <v>6.4161720000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.026000</v>
+        <v>-107.026</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>23108.663756</v>
+        <v>23108.663756000002</v>
       </c>
       <c r="AA2" s="1">
         <v>6.419073</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.698700</v>
+        <v>-89.698700000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>23118.946817</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.421930</v>
+        <v>6.4219299999999997</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.130000</v>
+        <v>1218.1300000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.214400</v>
+        <v>-85.214399999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>23129.376201</v>
+        <v>23129.376200999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.424827</v>
+        <v>6.4248269999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.020000</v>
+        <v>1225.02</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.346500</v>
+        <v>-88.346500000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>23139.946436</v>
+        <v>23139.946435999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.427763</v>
+        <v>6.4277629999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.109000</v>
+        <v>-100.10899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>23151.181318</v>
+        <v>23151.181317999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.430884</v>
+        <v>6.4308839999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.248000</v>
+        <v>-119.248</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>23162.289686</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.433969</v>
+        <v>6.4339690000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.655000</v>
+        <v>-136.655</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>23173.634681</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.437121</v>
+        <v>6.4371210000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG2" s="1">
-        <v>-218.329000</v>
+        <v>-218.32900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>23184.748536</v>
+        <v>23184.748535999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.440208</v>
+        <v>6.4402080000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.710000</v>
+        <v>1358.71</v>
       </c>
       <c r="BL2" s="1">
-        <v>-354.420000</v>
+        <v>-354.42</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>23196.280523</v>
+        <v>23196.280523000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.443411</v>
+        <v>6.4434110000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1472.250000</v>
+        <v>1472.25</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.642000</v>
+        <v>-575.64200000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>23206.654845</v>
+        <v>23206.654845000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.446293</v>
+        <v>6.4462929999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1602.510000</v>
+        <v>1602.51</v>
       </c>
       <c r="BV2" s="1">
-        <v>-825.385000</v>
+        <v>-825.38499999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>23217.349087</v>
+        <v>23217.349086999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.449264</v>
+        <v>6.4492640000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.120000</v>
+        <v>-1097.1199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>23228.639520</v>
+        <v>23228.639520000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.452400</v>
+        <v>6.4523999999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2167.250000</v>
+        <v>2167.25</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1756.110000</v>
+        <v>-1756.11</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>23057.319885</v>
+        <v>23057.319885000001</v>
       </c>
       <c r="B3" s="1">
-        <v>6.404811</v>
+        <v>6.4048109999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.700000</v>
+        <v>1143.7</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.455000</v>
+        <v>-259.45499999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>23067.351445</v>
       </c>
       <c r="G3" s="1">
-        <v>6.407598</v>
+        <v>6.4075980000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.430000</v>
+        <v>1165.43</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.964000</v>
+        <v>-217.964</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>23077.468375</v>
       </c>
       <c r="L3" s="1">
-        <v>6.410408</v>
+        <v>6.4104080000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.020000</v>
+        <v>1192.02</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.280000</v>
+        <v>-150.28</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>23087.722632</v>
+        <v>23087.722632000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.413256</v>
+        <v>6.4132559999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1199.600000</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.123000</v>
+        <v>-128.12299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>23098.618250</v>
+        <v>23098.61825</v>
       </c>
       <c r="V3" s="1">
         <v>6.416283</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.969000</v>
+        <v>-106.96899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>23108.773837</v>
+        <v>23108.773837000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.419104</v>
+        <v>6.4191039999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.714000</v>
+        <v>-89.713999999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>23119.314319</v>
+        <v>23119.314319000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.422032</v>
+        <v>6.4220319999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.177100</v>
+        <v>-85.177099999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>23129.742240</v>
+        <v>23129.74224</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.424928</v>
+        <v>6.4249280000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>1224.990000</v>
+        <v>1224.99</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.339600</v>
+        <v>-88.339600000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>23140.335764</v>
+        <v>23140.335763999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.427871</v>
+        <v>6.4278709999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.640000</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.074000</v>
+        <v>-100.074</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>23151.929285</v>
+        <v>23151.929284999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.431091</v>
+        <v>6.4310910000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.233000</v>
+        <v>-119.233</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>23163.044630</v>
+        <v>23163.04463</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.434179</v>
+        <v>6.4341790000000003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.630000</v>
+        <v>-136.63</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>23174.028999</v>
+        <v>23174.028998999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.437230</v>
+        <v>6.4372299999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-218.296000</v>
+        <v>-218.29599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>23185.163689</v>
+        <v>23185.163689000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.440323</v>
+        <v>6.4403230000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-354.459000</v>
+        <v>-354.459</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>23196.701626</v>
+        <v>23196.701625999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.443528</v>
+        <v>6.4435279999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.674000</v>
+        <v>-575.67399999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>23207.396885</v>
+        <v>23207.396884999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.446499</v>
+        <v>6.4464990000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1602.530000</v>
+        <v>1602.53</v>
       </c>
       <c r="BV3" s="1">
-        <v>-825.240000</v>
+        <v>-825.24</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>23217.841117</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.449400</v>
+        <v>6.4493999999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1753.540000</v>
+        <v>1753.54</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1096.880000</v>
+        <v>-1096.8800000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>23228.901929</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.452473</v>
+        <v>6.4524730000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>2167.920000</v>
+        <v>2167.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1757.160000</v>
+        <v>-1757.16</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>23057.669538</v>
+        <v>23057.669537999998</v>
       </c>
       <c r="B4" s="1">
-        <v>6.404908</v>
+        <v>6.4049079999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.300000</v>
+        <v>1143.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.474000</v>
+        <v>-259.47399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>23067.768083</v>
+        <v>23067.768082999999</v>
       </c>
       <c r="G4" s="1">
-        <v>6.407713</v>
+        <v>6.4077130000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.120000</v>
+        <v>1165.1199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.289000</v>
+        <v>-217.28899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>23077.878561</v>
+        <v>23077.878561000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.410522</v>
+        <v>6.4105220000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>1192.030000</v>
+        <v>1192.03</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.460000</v>
+        <v>-150.46</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>23088.064408</v>
+        <v>23088.064407999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.413351</v>
+        <v>6.4133509999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.167000</v>
+        <v>-128.167</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>23098.962473</v>
       </c>
       <c r="V4" s="1">
-        <v>6.416378</v>
+        <v>6.4163779999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.036000</v>
+        <v>-107.036</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>23109.113132</v>
+        <v>23109.113131999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.419198</v>
+        <v>6.4191979999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.763800</v>
+        <v>-89.763800000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>23119.659039</v>
+        <v>23119.659038999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.422128</v>
+        <v>6.4221279999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.180000</v>
+        <v>1218.18</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.194700</v>
+        <v>-85.194699999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>23130.092384</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.425026</v>
+        <v>6.4250259999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1224.990000</v>
+        <v>1224.99</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.354500</v>
+        <v>-88.354500000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>23141.054964</v>
+        <v>23141.054963999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.428071</v>
+        <v>6.4280710000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.830000</v>
+        <v>1232.83</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.159000</v>
+        <v>-100.15900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>23152.294803</v>
+        <v>23152.294803000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.431193</v>
+        <v>6.4311930000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.243000</v>
+        <v>-119.24299999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>23163.407670</v>
+        <v>23163.407670000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.434280</v>
+        <v>6.4342800000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.636000</v>
+        <v>-136.636</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>23174.392071</v>
+        <v>23174.392070999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.437331</v>
+        <v>6.4373310000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1289.810000</v>
+        <v>1289.81</v>
       </c>
       <c r="BG4" s="1">
-        <v>-218.284000</v>
+        <v>-218.28399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>23185.848664</v>
+        <v>23185.848664000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.440514</v>
+        <v>6.4405140000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL4" s="1">
-        <v>-354.440000</v>
+        <v>-354.44</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>23197.429288</v>
+        <v>23197.429287999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.443730</v>
+        <v>6.4437300000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.736000</v>
+        <v>-575.73599999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>23207.521354</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.446534</v>
+        <v>6.4465339999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1602.500000</v>
+        <v>1602.5</v>
       </c>
       <c r="BV4" s="1">
-        <v>-825.117000</v>
+        <v>-825.11699999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>23218.271644</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.449520</v>
+        <v>6.4495199999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.070000</v>
+        <v>-1097.07</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>23229.434109</v>
+        <v>23229.434109000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.452621</v>
+        <v>6.4526209999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>2165.140000</v>
+        <v>2165.14</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1757.190000</v>
+        <v>-1757.19</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>23058.095754</v>
+        <v>23058.095754000002</v>
       </c>
       <c r="B5" s="1">
-        <v>6.405027</v>
+        <v>6.4050269999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.590000</v>
+        <v>1143.5899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-259.378000</v>
+        <v>-259.37799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>23068.043859</v>
+        <v>23068.043859000001</v>
       </c>
       <c r="G5" s="1">
-        <v>6.407790</v>
+        <v>6.4077900000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1164.660000</v>
+        <v>1164.6600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.778000</v>
+        <v>-217.77799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>23078.382966</v>
+        <v>23078.382966000001</v>
       </c>
       <c r="L5" s="1">
-        <v>6.410662</v>
+        <v>6.4106620000000003</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.090000</v>
+        <v>1192.0899999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.895000</v>
+        <v>-150.89500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>23088.410618</v>
+        <v>23088.410618000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.413447</v>
+        <v>6.4134469999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>1199.640000</v>
+        <v>1199.6400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.103000</v>
+        <v>-128.10300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>23099.306699</v>
+        <v>23099.306699000001</v>
       </c>
       <c r="V5" s="1">
         <v>6.416474</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.067000</v>
+        <v>-107.06699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>23109.462780</v>
+        <v>23109.462780000002</v>
       </c>
       <c r="AA5" s="1">
         <v>6.419295</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.859200</v>
+        <v>-89.859200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>23120.345005</v>
+        <v>23120.345004999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.422318</v>
+        <v>6.4223179999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.165300</v>
+        <v>-85.165300000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>23130.787313</v>
+        <v>23130.787313000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.425219</v>
+        <v>6.4252190000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.000000</v>
+        <v>1225</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.314800</v>
+        <v>-88.314800000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>23141.649171</v>
+        <v>23141.649171000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.428236</v>
+        <v>6.4282360000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.097000</v>
+        <v>-100.09699999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>23152.658372</v>
+        <v>23152.658372000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.431294</v>
+        <v>6.4312940000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.226000</v>
+        <v>-119.226</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>23163.765780</v>
+        <v>23163.765780000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.434379</v>
+        <v>6.4343789999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.645000</v>
+        <v>-136.64500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>23175.053766</v>
+        <v>23175.053766000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.437515</v>
+        <v>6.4375150000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG5" s="1">
-        <v>-218.272000</v>
+        <v>-218.27199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>23186.319367</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.440644</v>
+        <v>6.4406439999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.710000</v>
+        <v>1358.71</v>
       </c>
       <c r="BL5" s="1">
-        <v>-354.427000</v>
+        <v>-354.42700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>23197.539367</v>
+        <v>23197.539367000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.443761</v>
+        <v>6.4437610000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1472.220000</v>
+        <v>1472.22</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.697000</v>
+        <v>-575.697</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>23207.928075</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.446647</v>
+        <v>6.4466469999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>1602.590000</v>
+        <v>1602.59</v>
       </c>
       <c r="BV5" s="1">
-        <v>-825.072000</v>
+        <v>-825.072</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>23218.694733</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.449637</v>
+        <v>6.4496370000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.510000</v>
+        <v>1753.51</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>23229.972270</v>
+        <v>23229.972269999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.452770</v>
+        <v>6.4527700000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2167.990000</v>
+        <v>2167.9899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1758.850000</v>
+        <v>-1758.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>23058.367903</v>
+        <v>23058.367902999998</v>
       </c>
       <c r="B6" s="1">
-        <v>6.405102</v>
+        <v>6.4051020000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.390000</v>
+        <v>1143.3900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-259.527000</v>
+        <v>-259.52699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>23068.386099</v>
+        <v>23068.386098999999</v>
       </c>
       <c r="G6" s="1">
-        <v>6.407885</v>
+        <v>6.4078850000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.180000</v>
+        <v>1165.18</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.917000</v>
+        <v>-217.917</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>23078.585370</v>
+        <v>23078.585370000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.410718</v>
+        <v>6.4107180000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.090000</v>
+        <v>1192.0899999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.438000</v>
+        <v>-150.43799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>23088.758775</v>
+        <v>23088.758774999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.413544</v>
+        <v>6.4135439999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1199.690000</v>
+        <v>1199.69</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.173000</v>
+        <v>-128.173</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>23099.993656</v>
+        <v>23099.993655999999</v>
       </c>
       <c r="V6" s="1">
-        <v>6.416665</v>
+        <v>6.4166650000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.966000</v>
+        <v>-106.96599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>23110.160155</v>
+        <v>23110.160155000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.419489</v>
+        <v>6.4194889999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.643400</v>
+        <v>-89.6434</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>23120.694228</v>
@@ -1599,270 +2015,270 @@
         <v>6.422415</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.208500</v>
+        <v>-85.208500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>23131.137456</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.425316</v>
+        <v>6.4253159999999996</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.345200</v>
+        <v>-88.345200000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>23142.039030</v>
+        <v>23142.03903</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.428344</v>
+        <v>6.4283440000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.081000</v>
+        <v>-100.081</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>23153.334946</v>
+        <v>23153.334945999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.431482</v>
+        <v>6.4314819999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.241000</v>
+        <v>-119.241</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>23164.436904</v>
+        <v>23164.436903999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.434566</v>
+        <v>6.4345660000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.644000</v>
+        <v>-136.64400000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>23175.503636</v>
+        <v>23175.503636000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.437640</v>
+        <v>6.43764</v>
       </c>
       <c r="BF6" s="1">
-        <v>1289.810000</v>
+        <v>1289.81</v>
       </c>
       <c r="BG6" s="1">
-        <v>-218.301000</v>
+        <v>-218.30099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>23186.693877</v>
+        <v>23186.693877000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.440748</v>
+        <v>6.4407480000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.710000</v>
+        <v>1358.71</v>
       </c>
       <c r="BL6" s="1">
-        <v>-354.450000</v>
+        <v>-354.45</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>23197.940135</v>
+        <v>23197.940135000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.443872</v>
+        <v>6.4438719999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.663000</v>
+        <v>-575.66300000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>23208.362569</v>
+        <v>23208.362569000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.446767</v>
+        <v>6.4467670000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1602.570000</v>
+        <v>1602.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-825.013000</v>
+        <v>-825.01300000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>23219.116365</v>
+        <v>23219.116365000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.449755</v>
+        <v>6.4497549999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.460000</v>
+        <v>1753.46</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>23230.514396</v>
+        <v>23230.514395999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.452921</v>
+        <v>6.4529209999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2166.860000</v>
+        <v>2166.86</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1756.630000</v>
+        <v>-1756.63</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>23058.714111</v>
+        <v>23058.714111000001</v>
       </c>
       <c r="B7" s="1">
-        <v>6.405198</v>
+        <v>6.4051980000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.440000</v>
+        <v>1143.44</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.538000</v>
+        <v>-259.53800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>23068.732803</v>
+        <v>23068.732802999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.407981</v>
+        <v>6.4079810000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.220000</v>
+        <v>1165.22</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.830000</v>
+        <v>-217.83</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23079.224677</v>
+        <v>23079.224676999998</v>
       </c>
       <c r="L7" s="1">
-        <v>6.410896</v>
+        <v>6.4108960000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1192.180000</v>
+        <v>1192.18</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.246000</v>
+        <v>-150.24600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>23089.457638</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.413738</v>
+        <v>6.4137380000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.154000</v>
+        <v>-128.154</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>23100.335897</v>
+        <v>23100.335897000001</v>
       </c>
       <c r="V7" s="1">
-        <v>6.416760</v>
+        <v>6.41676</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.640000</v>
+        <v>1206.6400000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.971000</v>
+        <v>-106.971</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>23110.507580</v>
+        <v>23110.507580000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.419585</v>
+        <v>6.4195849999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.707700</v>
+        <v>-89.707700000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>23121.037458</v>
+        <v>23121.037457999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.422510</v>
+        <v>6.4225099999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.142300</v>
+        <v>-85.142300000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>23131.789053</v>
@@ -1871,210 +2287,210 @@
         <v>6.425497</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.340000</v>
+        <v>-88.34</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>23142.714576</v>
+        <v>23142.714575999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.428532</v>
+        <v>6.4285319999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.084000</v>
+        <v>-100.084</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>23153.753801</v>
+        <v>23153.753800999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.431598</v>
+        <v>6.4315980000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.237000</v>
+        <v>-119.23699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>23164.837176</v>
+        <v>23164.837176000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.434677</v>
+        <v>6.4346769999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.651000</v>
+        <v>-136.65100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>23175.861717</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.437739</v>
+        <v>6.4377389999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1289.800000</v>
+        <v>1289.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-218.286000</v>
+        <v>-218.286</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>23187.099077</v>
+        <v>23187.099076999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.440861</v>
+        <v>6.4408609999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL7" s="1">
-        <v>-354.416000</v>
+        <v>-354.416</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>23198.337926</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.443983</v>
+        <v>6.4439830000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1472.250000</v>
+        <v>1472.25</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.698000</v>
+        <v>-575.69799999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>23208.789128</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.446886</v>
+        <v>6.4468860000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1602.740000</v>
+        <v>1602.74</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.956000</v>
+        <v>-824.95600000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>23219.543419</v>
+        <v>23219.543419000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.449873</v>
+        <v>6.4498730000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.010000</v>
+        <v>-1097.01</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>23231.055035</v>
+        <v>23231.055035000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.453071</v>
+        <v>6.4530709999999996</v>
       </c>
       <c r="CE7" s="1">
-        <v>2165.870000</v>
+        <v>2165.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1758.570000</v>
+        <v>-1758.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>23059.053872</v>
       </c>
       <c r="B8" s="1">
-        <v>6.405293</v>
+        <v>6.4052930000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.440000</v>
+        <v>1143.44</v>
       </c>
       <c r="D8" s="1">
-        <v>-259.342000</v>
+        <v>-259.34199999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>23069.424722</v>
       </c>
       <c r="G8" s="1">
-        <v>6.408174</v>
+        <v>6.4081739999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.780000</v>
+        <v>1164.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.535000</v>
+        <v>-217.535</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>23079.600161</v>
+        <v>23079.600160999998</v>
       </c>
       <c r="L8" s="1">
-        <v>6.411000</v>
+        <v>6.4109999999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.210000</v>
+        <v>1192.21</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.320000</v>
+        <v>-150.32</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>23089.805830</v>
+        <v>23089.805830000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.413835</v>
+        <v>6.4138349999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.147000</v>
+        <v>-128.14699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>23100.679129</v>
@@ -2083,240 +2499,240 @@
         <v>6.416855</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.051000</v>
+        <v>-107.051</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>23110.857595</v>
+        <v>23110.857595000001</v>
       </c>
       <c r="AA8" s="1">
         <v>6.419683</v>
       </c>
       <c r="AB8" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.725900</v>
+        <v>-89.725899999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>23121.679244</v>
+        <v>23121.679243999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.422689</v>
+        <v>6.4226890000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.195700</v>
+        <v>-85.195700000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>23132.181039</v>
+        <v>23132.181038999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.425606</v>
+        <v>6.4256060000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.000000</v>
+        <v>1225</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.368800</v>
+        <v>-88.368799999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>23143.123814</v>
+        <v>23143.123813999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.428646</v>
+        <v>6.4286459999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.079000</v>
+        <v>-100.07899999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>23154.117602</v>
+        <v>23154.117601999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.431699</v>
+        <v>6.4316990000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.267000</v>
+        <v>-119.267</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>23165.224516</v>
+        <v>23165.224515999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.434785</v>
+        <v>6.4347849999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.666000</v>
+        <v>-136.666</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>23176.222308</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.437840</v>
+        <v>6.4378399999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG8" s="1">
-        <v>-218.311000</v>
+        <v>-218.31100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>23187.514724</v>
+        <v>23187.514724000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>6.440976</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL8" s="1">
-        <v>-354.458000</v>
+        <v>-354.45800000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>23198.762998</v>
+        <v>23198.762997999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.444101</v>
+        <v>6.4441009999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1472.200000</v>
+        <v>1472.2</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.678000</v>
+        <v>-575.678</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>23209.202329</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.447001</v>
+        <v>6.4470010000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1602.830000</v>
+        <v>1602.83</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.854000</v>
+        <v>-824.85400000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>23219.958074</v>
+        <v>23219.958073999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.449988</v>
+        <v>6.4499880000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.390000</v>
+        <v>1753.39</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.280000</v>
+        <v>-1097.28</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>23231.594220</v>
+        <v>23231.594219999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.453221</v>
+        <v>6.4532210000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2167.990000</v>
+        <v>2167.9899999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1757.930000</v>
+        <v>-1757.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>23059.735405</v>
+        <v>23059.735404999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.405482</v>
+        <v>6.4054820000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.470000</v>
+        <v>1143.47</v>
       </c>
       <c r="D9" s="1">
-        <v>-259.441000</v>
+        <v>-259.44099999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>23069.768944</v>
+        <v>23069.768943999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.408269</v>
+        <v>6.4082689999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.460000</v>
+        <v>1165.46</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.897000</v>
+        <v>-216.89699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>23079.945364</v>
+        <v>23079.945363999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.411096</v>
+        <v>6.4110959999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1192.160000</v>
+        <v>1192.1600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.322000</v>
+        <v>-150.322</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>23090.154519</v>
@@ -2325,225 +2741,225 @@
         <v>6.413932</v>
       </c>
       <c r="R9" s="1">
-        <v>1199.580000</v>
+        <v>1199.58</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.113000</v>
+        <v>-128.113</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>23101.332855</v>
+        <v>23101.332855000001</v>
       </c>
       <c r="V9" s="1">
-        <v>6.417037</v>
+        <v>6.4170369999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.996000</v>
+        <v>-106.996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>23111.520186</v>
+        <v>23111.520186000002</v>
       </c>
       <c r="AA9" s="1">
         <v>6.419867</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.674500</v>
+        <v>-89.674499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>23122.067117</v>
+        <v>23122.067116999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.422796</v>
+        <v>6.4227959999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.180000</v>
+        <v>1218.18</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.195800</v>
+        <v>-85.195800000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>23132.532207</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.425703</v>
+        <v>6.4257030000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.030000</v>
+        <v>1225.03</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.347800</v>
+        <v>-88.347800000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>23143.501231</v>
+        <v>23143.501230999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.428750</v>
+        <v>6.42875</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.067000</v>
+        <v>-100.06699999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>23154.482160</v>
+        <v>23154.48216</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.431801</v>
+        <v>6.4318010000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.264000</v>
+        <v>-119.264</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>23165.643138</v>
+        <v>23165.643137999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>6.434901</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.618000</v>
+        <v>-136.61799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>23176.632003</v>
+        <v>23176.632002999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.437953</v>
+        <v>6.4379530000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1289.840000</v>
+        <v>1289.8399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-218.311000</v>
+        <v>-218.31100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>23187.849028</v>
+        <v>23187.849028000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.441069</v>
+        <v>6.4410689999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="BL9" s="1">
-        <v>-354.450000</v>
+        <v>-354.45</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>23199.154341</v>
+        <v>23199.154341000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.444210</v>
+        <v>6.44421</v>
       </c>
       <c r="BP9" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.683000</v>
+        <v>-575.68299999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>23209.632825</v>
+        <v>23209.632825000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.447120</v>
+        <v>6.44712</v>
       </c>
       <c r="BU9" s="1">
-        <v>1602.960000</v>
+        <v>1602.96</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.844000</v>
+        <v>-824.84400000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>23220.411417</v>
+        <v>23220.411416999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.450114</v>
+        <v>6.4501140000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.520000</v>
+        <v>1753.52</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.100000</v>
+        <v>-1097.0999999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>23232.133833</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.453371</v>
+        <v>6.4533709999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>2165.750000</v>
+        <v>2165.75</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1757.400000</v>
+        <v>-1757.4</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>23060.079597</v>
       </c>
       <c r="B10" s="1">
-        <v>6.405578</v>
+        <v>6.4055780000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.280000</v>
+        <v>1143.28</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.435000</v>
+        <v>-259.435</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>23070.116144</v>
@@ -2552,73 +2968,73 @@
         <v>6.408366</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.550000</v>
+        <v>1164.55</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.908000</v>
+        <v>-216.90799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>23080.606066</v>
       </c>
       <c r="L10" s="1">
-        <v>6.411279</v>
+        <v>6.4112790000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>1192.220000</v>
+        <v>1192.22</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.544000</v>
+        <v>-150.54400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>23090.810724</v>
+        <v>23090.810723999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.414114</v>
+        <v>6.4141139999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.080000</v>
+        <v>-128.08000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>23101.711302</v>
       </c>
       <c r="V10" s="1">
-        <v>6.417142</v>
+        <v>6.4171420000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.977000</v>
+        <v>-106.977</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>23111.903593</v>
+        <v>23111.903592999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.419973</v>
+        <v>6.4199729999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.750000</v>
+        <v>1213.75</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.007400</v>
+        <v>-90.007400000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>23122.412331</v>
@@ -2627,103 +3043,103 @@
         <v>6.422892</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.190000</v>
+        <v>1218.19</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.161400</v>
+        <v>-85.1614</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>23132.878413</v>
+        <v>23132.878412999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.425800</v>
+        <v>6.4257999999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.370100</v>
+        <v>-88.370099999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>23143.890623</v>
+        <v>23143.890622999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.428859</v>
+        <v>6.4288590000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.103000</v>
+        <v>-100.10299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>23154.891392</v>
+        <v>23154.891392000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.431914</v>
+        <v>6.4319139999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.237000</v>
+        <v>-119.23699999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>23165.980913</v>
+        <v>23165.980912999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.434995</v>
+        <v>6.4349949999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.616000</v>
+        <v>-136.61600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>23176.942996</v>
+        <v>23176.942996000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.438040</v>
+        <v>6.43804</v>
       </c>
       <c r="BF10" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-218.270000</v>
+        <v>-218.27</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>23188.227476</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.441174</v>
+        <v>6.4411740000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.690000</v>
+        <v>1358.69</v>
       </c>
       <c r="BL10" s="1">
-        <v>-354.440000</v>
+        <v>-354.44</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>23199.748549</v>
@@ -2732,332 +3148,332 @@
         <v>6.444375</v>
       </c>
       <c r="BP10" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.632000</v>
+        <v>-575.63199999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>23210.061367</v>
+        <v>23210.061366999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.447239</v>
+        <v>6.4472389999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1602.970000</v>
+        <v>1602.97</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.854000</v>
+        <v>-824.85400000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>23220.862745</v>
+        <v>23220.862744999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.450240</v>
+        <v>6.45024</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.510000</v>
+        <v>1753.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>23232.673481</v>
+        <v>23232.673481000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.453520</v>
+        <v>6.4535200000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2167.600000</v>
+        <v>2167.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1758.880000</v>
+        <v>-1758.88</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>23060.414396</v>
       </c>
       <c r="B11" s="1">
-        <v>6.405671</v>
+        <v>6.4056709999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.340000</v>
+        <v>1143.3399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.688000</v>
+        <v>-259.68799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>23070.757999</v>
+        <v>23070.757999000001</v>
       </c>
       <c r="G11" s="1">
         <v>6.408544</v>
       </c>
       <c r="H11" s="1">
-        <v>1164.830000</v>
+        <v>1164.83</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.142000</v>
+        <v>-217.142</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>23080.983985</v>
+        <v>23080.983984999999</v>
       </c>
       <c r="L11" s="1">
         <v>6.411384</v>
       </c>
       <c r="M11" s="1">
-        <v>1192.300000</v>
+        <v>1192.3</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.533000</v>
+        <v>-150.53299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>23091.199124</v>
+        <v>23091.199123999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.414222</v>
+        <v>6.4142219999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.620000</v>
+        <v>1199.6199999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.148000</v>
+        <v>-128.148</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>23102.055526</v>
       </c>
       <c r="V11" s="1">
-        <v>6.417238</v>
+        <v>6.4172380000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.948000</v>
+        <v>-106.94799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>23112.253768</v>
+        <v>23112.253767999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.420070</v>
+        <v>6.4200699999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.790000</v>
+        <v>1213.79</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.614400</v>
+        <v>-89.614400000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>23122.757051</v>
+        <v>23122.757051000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.422988</v>
+        <v>6.4229880000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.155200</v>
+        <v>-85.155199999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>23133.295550</v>
+        <v>23133.295549999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.425915</v>
+        <v>6.4259149999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1224.990000</v>
+        <v>1224.99</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.328200</v>
+        <v>-88.328199999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>23144.316159</v>
+        <v>23144.316159000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.428977</v>
+        <v>6.4289769999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.080000</v>
+        <v>-100.08</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>23155.210816</v>
+        <v>23155.210815999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.432003</v>
+        <v>6.4320029999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.246000</v>
+        <v>-119.246</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>23166.340546</v>
+        <v>23166.340545999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.435095</v>
+        <v>6.4350949999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.647000</v>
+        <v>-136.64699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>23177.305602</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.438140</v>
+        <v>6.4381399999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1289.800000</v>
+        <v>1289.8</v>
       </c>
       <c r="BG11" s="1">
-        <v>-218.293000</v>
+        <v>-218.29300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>23188.609395</v>
+        <v>23188.609394999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.441280</v>
+        <v>6.4412799999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.700000</v>
+        <v>1358.7</v>
       </c>
       <c r="BL11" s="1">
-        <v>-354.424000</v>
+        <v>-354.42399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>23200.285716</v>
+        <v>23200.285715999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.444524</v>
+        <v>6.4445240000000004</v>
       </c>
       <c r="BP11" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.739000</v>
+        <v>-575.73900000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>23210.472086</v>
+        <v>23210.472086000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.447353</v>
+        <v>6.4473529999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1603.100000</v>
+        <v>1603.1</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.821000</v>
+        <v>-824.82100000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>23221.317576</v>
+        <v>23221.317576000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.450366</v>
+        <v>6.4503659999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.070000</v>
+        <v>-1097.07</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>23233.212136</v>
+        <v>23233.212135999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.453670</v>
+        <v>6.4536699999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2166.900000</v>
+        <v>2166.9</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1756.680000</v>
+        <v>-1756.68</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>23061.194603</v>
       </c>
       <c r="B12" s="1">
-        <v>6.405887</v>
+        <v>6.4058869999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.620000</v>
+        <v>1143.6199999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-259.715000</v>
+        <v>-259.71499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>23071.148318</v>
@@ -3066,799 +3482,799 @@
         <v>6.408652</v>
       </c>
       <c r="H12" s="1">
-        <v>1164.730000</v>
+        <v>1164.73</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.180000</v>
+        <v>-217.18</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>23081.331715</v>
       </c>
       <c r="L12" s="1">
-        <v>6.411481</v>
+        <v>6.4114810000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.240000</v>
+        <v>1192.24</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.592000</v>
+        <v>-150.59200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>23091.549764</v>
+        <v>23091.549763999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.414319</v>
+        <v>6.4143189999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.214000</v>
+        <v>-128.214</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>23102.397301</v>
+        <v>23102.397301000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.417333</v>
+        <v>6.4173330000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.987000</v>
+        <v>-106.98699999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>23112.599481</v>
+        <v>23112.599481000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.420167</v>
+        <v>6.4201670000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.756200</v>
+        <v>-89.756200000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>23123.171242</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.423103</v>
+        <v>6.4231030000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.144800</v>
+        <v>-85.144800000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>23133.589040</v>
+        <v>23133.589039999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.425997</v>
+        <v>6.4259969999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.000000</v>
+        <v>1225</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.353200</v>
+        <v>-88.353200000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>23144.611304</v>
+        <v>23144.611303999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.429059</v>
+        <v>6.4290589999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.094000</v>
+        <v>-100.09399999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>23155.575344</v>
+        <v>23155.575344000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.432104</v>
+        <v>6.4321039999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.239000</v>
+        <v>-119.239</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>23166.700145</v>
+        <v>23166.700144999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.435194</v>
+        <v>6.4351940000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.656000</v>
+        <v>-136.65600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>23177.669137</v>
+        <v>23177.669137000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.438241</v>
+        <v>6.4382409999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1289.790000</v>
+        <v>1289.79</v>
       </c>
       <c r="BG12" s="1">
-        <v>-218.292000</v>
+        <v>-218.292</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>23189.371746</v>
+        <v>23189.371746000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.441492</v>
+        <v>6.4414920000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL12" s="1">
-        <v>-354.421000</v>
+        <v>-354.42099999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>23200.397316</v>
+        <v>23200.397315999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.444555</v>
+        <v>6.4445550000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1472.250000</v>
+        <v>1472.25</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.673000</v>
+        <v>-575.673</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>23210.903609</v>
+        <v>23210.903609000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.447473</v>
+        <v>6.4474729999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1603.170000</v>
+        <v>1603.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.840000</v>
+        <v>-824.84</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>23221.766951</v>
+        <v>23221.766951000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.450491</v>
+        <v>6.4504910000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1753.580000</v>
+        <v>1753.58</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.110000</v>
+        <v>-1097.1099999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>23233.754760</v>
+        <v>23233.75476</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.453821</v>
+        <v>6.4538209999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>2165.560000</v>
+        <v>2165.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1758.480000</v>
+        <v>-1758.48</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>23061.446076</v>
       </c>
       <c r="B13" s="1">
-        <v>6.405957</v>
+        <v>6.4059569999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.330000</v>
+        <v>1143.33</v>
       </c>
       <c r="D13" s="1">
-        <v>-259.592000</v>
+        <v>-259.59199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>23071.491584</v>
+        <v>23071.491583999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6.408748</v>
+        <v>6.4087480000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.090000</v>
+        <v>1165.0899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.795000</v>
+        <v>-216.79499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>23081.676402</v>
+        <v>23081.676402000001</v>
       </c>
       <c r="L13" s="1">
-        <v>6.411577</v>
+        <v>6.4115770000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.020000</v>
+        <v>1192.02</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.365000</v>
+        <v>-150.36500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>23091.897956</v>
+        <v>23091.897956000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.414416</v>
+        <v>6.4144160000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.610000</v>
+        <v>1199.6099999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.099000</v>
+        <v>-128.09899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>23102.817914</v>
+        <v>23102.817913999999</v>
       </c>
       <c r="V13" s="1">
-        <v>6.417449</v>
+        <v>6.4174490000000004</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.062000</v>
+        <v>-107.062</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>23113.061256</v>
+        <v>23113.061256000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.420295</v>
+        <v>6.4202950000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.660000</v>
+        <v>1213.6600000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.829400</v>
+        <v>-89.829400000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>23123.445993</v>
+        <v>23123.445993000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.423179</v>
+        <v>6.4231790000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.180000</v>
+        <v>1218.18</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.166800</v>
+        <v>-85.166799999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>23133.939355</v>
+        <v>23133.939354999999</v>
       </c>
       <c r="AK13" s="1">
         <v>6.426094</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.322500</v>
+        <v>-88.322500000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>23144.971373</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.429159</v>
+        <v>6.4291590000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.081000</v>
+        <v>-100.081</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>23155.941886</v>
+        <v>23155.941886000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.432206</v>
+        <v>6.4322059999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.222000</v>
+        <v>-119.22199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>23167.420341</v>
+        <v>23167.420341000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.435395</v>
+        <v>6.4353949999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.651000</v>
+        <v>-136.65100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>23178.391809</v>
+        <v>23178.391809000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.438442</v>
+        <v>6.4384420000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1289.810000</v>
+        <v>1289.81</v>
       </c>
       <c r="BG13" s="1">
-        <v>-218.260000</v>
+        <v>-218.26</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>23189.748242</v>
+        <v>23189.748242000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.441597</v>
+        <v>6.4415969999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.720000</v>
+        <v>1358.72</v>
       </c>
       <c r="BL13" s="1">
-        <v>-354.443000</v>
+        <v>-354.44299999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>23200.815941</v>
+        <v>23200.815941000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.444671</v>
+        <v>6.4446709999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.705000</v>
+        <v>-575.70500000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>23211.330134</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.447592</v>
+        <v>6.4475920000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1603.300000</v>
+        <v>1603.3</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.978000</v>
+        <v>-824.97799999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>23222.527814</v>
+        <v>23222.527814000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.450702</v>
+        <v>6.4507019999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>23234.600440</v>
+        <v>23234.600439999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.454056</v>
+        <v>6.4540559999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>2167.240000</v>
+        <v>2167.2399999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1756.170000</v>
+        <v>-1756.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>23061.789307</v>
+        <v>23061.789306999999</v>
       </c>
       <c r="B14" s="1">
         <v>6.406053</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.400000</v>
+        <v>1143.4000000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.668000</v>
+        <v>-259.66800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>23071.836767</v>
+        <v>23071.836767000001</v>
       </c>
       <c r="G14" s="1">
-        <v>6.408844</v>
+        <v>6.4088440000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.700000</v>
+        <v>1164.7</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.569000</v>
+        <v>-217.56899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>23082.098000</v>
+        <v>23082.098000000002</v>
       </c>
       <c r="L14" s="1">
-        <v>6.411694</v>
+        <v>6.4116939999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.170000</v>
+        <v>1192.17</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.383000</v>
+        <v>-150.38300000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>23092.326003</v>
+        <v>23092.326002999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.414535</v>
+        <v>6.4145349999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1199.650000</v>
+        <v>1199.6500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.139000</v>
+        <v>-128.13900000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>23103.110516</v>
+        <v>23103.110516000001</v>
       </c>
       <c r="V14" s="1">
-        <v>6.417531</v>
+        <v>6.4175310000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.680000</v>
+        <v>1206.68</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.083000</v>
+        <v>-107.083</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>23113.304307</v>
+        <v>23113.304306999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.420362</v>
+        <v>6.4203619999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.777700</v>
+        <v>-89.777699999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>23123.786745</v>
+        <v>23123.786745000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.423274</v>
+        <v>6.4232740000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.156400</v>
+        <v>-85.156400000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>23134.286097</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.426191</v>
+        <v>6.4261910000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.030000</v>
+        <v>1225.03</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.320500</v>
+        <v>-88.320499999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>23145.329980</v>
+        <v>23145.329979999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.429258</v>
+        <v>6.4292579999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.095000</v>
+        <v>-100.095</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>23156.675966</v>
+        <v>23156.675965999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.432410</v>
+        <v>6.43241</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.380000</v>
+        <v>1242.3800000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.240000</v>
+        <v>-119.24</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>23167.794783</v>
+        <v>23167.794783000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.435499</v>
+        <v>6.4354990000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.631000</v>
+        <v>-136.631</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>23178.780177</v>
+        <v>23178.780177000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.438550</v>
+        <v>6.4385500000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG14" s="1">
-        <v>-218.267000</v>
+        <v>-218.267</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>23190.125169</v>
+        <v>23190.125168999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.441701</v>
+        <v>6.4417010000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.690000</v>
+        <v>1358.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-354.439000</v>
+        <v>-354.43900000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>23201.519299</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.444866</v>
+        <v>6.4448660000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.749000</v>
+        <v>-575.74900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>23212.053300</v>
+        <v>23212.0533</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.447793</v>
+        <v>6.4477929999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1603.390000</v>
+        <v>1603.39</v>
       </c>
       <c r="BV14" s="1">
-        <v>-825.094000</v>
+        <v>-825.09400000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>23222.669206</v>
+        <v>23222.669205999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.450741</v>
+        <v>6.4507409999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.340000</v>
+        <v>1753.34</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1096.970000</v>
+        <v>-1096.97</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>23234.832568</v>
+        <v>23234.832568000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.454120</v>
+        <v>6.4541199999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>2167.090000</v>
+        <v>2167.09</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1756.250000</v>
+        <v>-1756.25</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>23062.204458</v>
       </c>
       <c r="B15" s="1">
-        <v>6.406168</v>
+        <v>6.4061680000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.340000</v>
+        <v>1143.3399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-259.521000</v>
+        <v>-259.52100000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>23072.258861</v>
+        <v>23072.258860999998</v>
       </c>
       <c r="G15" s="1">
-        <v>6.408961</v>
+        <v>6.4089609999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.070000</v>
+        <v>1165.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.338000</v>
+        <v>-217.33799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>23082.370800</v>
+        <v>23082.370800000001</v>
       </c>
       <c r="L15" s="1">
-        <v>6.411770</v>
+        <v>6.4117699999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.160000</v>
+        <v>1192.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.211000</v>
+        <v>-150.21100000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>23092.604785</v>
@@ -3867,617 +4283,617 @@
         <v>6.414612</v>
       </c>
       <c r="R15" s="1">
-        <v>1199.600000</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.077000</v>
+        <v>-128.077</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>23103.454244</v>
       </c>
       <c r="V15" s="1">
-        <v>6.417626</v>
+        <v>6.4176260000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.099000</v>
+        <v>-107.099</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>23113.649045</v>
+        <v>23113.649044999998</v>
       </c>
       <c r="AA15" s="1">
         <v>6.420458</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.801800</v>
+        <v>-89.8018</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>23124.131960</v>
+        <v>23124.131959999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.423370</v>
+        <v>6.4233700000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.190000</v>
+        <v>1218.19</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.165300</v>
+        <v>-85.165300000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>23134.983461</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.426384</v>
+        <v>6.4263839999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.340900</v>
+        <v>-88.340900000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>23146.056125</v>
+        <v>23146.056124999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.429460</v>
+        <v>6.4294599999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.048000</v>
+        <v>-100.048</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>23157.055438</v>
+        <v>23157.055437999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.432515</v>
+        <v>6.4325150000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.390000</v>
+        <v>1242.3900000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.236000</v>
+        <v>-119.236</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>23168.173726</v>
+        <v>23168.173726000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.435604</v>
+        <v>6.4356039999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.650000</v>
+        <v>-136.65</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>23179.140800</v>
+        <v>23179.140800000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.438650</v>
+        <v>6.43865</v>
       </c>
       <c r="BF15" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG15" s="1">
-        <v>-218.248000</v>
+        <v>-218.24799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>23190.825056</v>
+        <v>23190.825056000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.441896</v>
+        <v>6.4418959999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-354.424000</v>
+        <v>-354.42399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>23201.634338</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.444898</v>
+        <v>6.4448980000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1472.240000</v>
+        <v>1472.24</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.719000</v>
+        <v>-575.71900000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>23212.174820</v>
+        <v>23212.17482</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.447826</v>
+        <v>6.4478260000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1603.390000</v>
+        <v>1603.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-825.089000</v>
+        <v>-825.08900000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>23223.091765</v>
+        <v>23223.091765000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.450859</v>
+        <v>6.4508590000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.280000</v>
+        <v>1753.28</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.080000</v>
+        <v>-1097.08</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>23235.351414</v>
+        <v>23235.351414000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.454264</v>
+        <v>6.4542640000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2165.700000</v>
+        <v>2165.6999999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1757.530000</v>
+        <v>-1757.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>23062.477258</v>
+        <v>23062.477257999999</v>
       </c>
       <c r="B16" s="1">
         <v>6.406244</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.370000</v>
+        <v>1143.3699999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.329000</v>
+        <v>-259.32900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>23072.529676</v>
+        <v>23072.529675999998</v>
       </c>
       <c r="G16" s="1">
-        <v>6.409036</v>
+        <v>6.4090360000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.260000</v>
+        <v>1165.26</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.553000</v>
+        <v>-216.553</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>23082.716015</v>
+        <v>23082.716015000002</v>
       </c>
       <c r="L16" s="1">
-        <v>6.411866</v>
+        <v>6.4118659999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1192.270000</v>
+        <v>1192.27</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.230000</v>
+        <v>-150.22999999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>23092.957411</v>
+        <v>23092.957410999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.414710</v>
+        <v>6.4147100000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1199.650000</v>
+        <v>1199.6500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.070000</v>
+        <v>-128.07</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>23103.799459</v>
+        <v>23103.799459000002</v>
       </c>
       <c r="V16" s="1">
-        <v>6.417722</v>
+        <v>6.4177220000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.750000</v>
+        <v>1206.75</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.089000</v>
+        <v>-107.089</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>23114.347910</v>
+        <v>23114.34791</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.420652</v>
+        <v>6.4206519999999996</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.810000</v>
+        <v>1213.81</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.824700</v>
+        <v>-89.824700000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>23124.821400</v>
+        <v>23124.821400000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.423561</v>
+        <v>6.4235610000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.136000</v>
+        <v>-85.135999999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>23135.330169</v>
+        <v>23135.330169000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.426481</v>
+        <v>6.4264809999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.020000</v>
+        <v>1225.02</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.358300</v>
+        <v>-88.3583</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>23146.437748</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.429566</v>
+        <v>6.4295660000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.082000</v>
+        <v>-100.08199999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>23157.420153</v>
+        <v>23157.420152999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.432617</v>
+        <v>6.4326169999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.264000</v>
+        <v>-119.264</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>23168.840847</v>
+        <v>23168.840846999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.435789</v>
+        <v>6.4357889999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.636000</v>
+        <v>-136.636</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>23179.803423</v>
+        <v>23179.803423000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.438834</v>
+        <v>6.4388339999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-218.260000</v>
+        <v>-218.26</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>23191.273409</v>
+        <v>23191.273409000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.442020</v>
+        <v>6.4420200000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.740000</v>
+        <v>1358.74</v>
       </c>
       <c r="BL16" s="1">
-        <v>-354.426000</v>
+        <v>-354.42599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>23202.060401</v>
+        <v>23202.060400999999</v>
       </c>
       <c r="BO16" s="1">
         <v>6.445017</v>
       </c>
       <c r="BP16" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.698000</v>
+        <v>-575.69799999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>23212.612292</v>
+        <v>23212.612292000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.447948</v>
+        <v>6.4479480000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1603.490000</v>
+        <v>1603.49</v>
       </c>
       <c r="BV16" s="1">
-        <v>-825.196000</v>
+        <v>-825.19600000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>23223.513374</v>
+        <v>23223.513373999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.450976</v>
+        <v>6.4509759999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1096.970000</v>
+        <v>-1096.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>23235.871685</v>
+        <v>23235.871684999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.454409</v>
+        <v>6.4544090000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2165.900000</v>
+        <v>2165.9</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1757.090000</v>
+        <v>-1757.09</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>23062.818505</v>
+        <v>23062.818504999999</v>
       </c>
       <c r="B17" s="1">
-        <v>6.406338</v>
+        <v>6.4063379999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.370000</v>
+        <v>1143.3699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-259.631000</v>
+        <v>-259.63099999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23072.872908</v>
+        <v>23072.872908000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.409131</v>
+        <v>6.4091310000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.240000</v>
+        <v>1165.24</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.227000</v>
+        <v>-217.227</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>23083.060748</v>
       </c>
       <c r="L17" s="1">
-        <v>6.411961</v>
+        <v>6.4119609999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.980000</v>
+        <v>1191.98</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.736000</v>
+        <v>-150.73599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>23093.304609</v>
+        <v>23093.304608999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.414807</v>
+        <v>6.4148069999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>1199.660000</v>
+        <v>1199.6600000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.126000</v>
+        <v>-128.126</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>23104.484435</v>
+        <v>23104.484434999998</v>
       </c>
       <c r="V17" s="1">
-        <v>6.417912</v>
+        <v>6.4179120000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.640000</v>
+        <v>1206.6400000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.008000</v>
+        <v>-107.008</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>23114.694622</v>
+        <v>23114.694621999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.420749</v>
+        <v>6.4207489999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.770000</v>
+        <v>1213.77</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.710900</v>
+        <v>-89.710899999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>23125.162151</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.423656</v>
+        <v>6.4236560000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.183000</v>
+        <v>-85.183000000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>23135.678825</v>
+        <v>23135.678824999999</v>
       </c>
       <c r="AK17" s="1">
         <v>6.426577</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.000000</v>
+        <v>1225</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.361600</v>
+        <v>-88.361599999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>23146.793219</v>
+        <v>23146.793218999999</v>
       </c>
       <c r="AP17" s="1">
         <v>6.429665</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.085000</v>
+        <v>-100.08499999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>23158.096012</v>
+        <v>23158.096012000002</v>
       </c>
       <c r="AU17" s="1">
         <v>6.432804</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.257000</v>
+        <v>-119.25700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>23169.257028</v>
@@ -4486,225 +4902,225 @@
         <v>6.435905</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.652000</v>
+        <v>-136.65199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>23180.256271</v>
+        <v>23180.256270999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.438960</v>
+        <v>6.4389599999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1289.860000</v>
+        <v>1289.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-218.273000</v>
+        <v>-218.273</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>23191.677684</v>
+        <v>23191.677683999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.442133</v>
+        <v>6.4421330000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.690000</v>
+        <v>1358.69</v>
       </c>
       <c r="BL17" s="1">
-        <v>-354.447000</v>
+        <v>-354.447</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>23202.457201</v>
+        <v>23202.457201000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.445127</v>
+        <v>6.4451270000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.666000</v>
+        <v>-575.66600000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>23213.037890</v>
+        <v>23213.03789</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.448066</v>
+        <v>6.4480659999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1603.420000</v>
+        <v>1603.42</v>
       </c>
       <c r="BV17" s="1">
-        <v>-825.331000</v>
+        <v>-825.33100000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>23223.949380</v>
+        <v>23223.949379999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.451097</v>
+        <v>6.4510969999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.440000</v>
+        <v>1753.44</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>23236.422740</v>
+        <v>23236.422740000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.454562</v>
+        <v>6.4545620000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2166.770000</v>
+        <v>2166.77</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1756.770000</v>
+        <v>-1756.77</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>23063.160745</v>
+        <v>23063.160745000001</v>
       </c>
       <c r="B18" s="1">
         <v>6.406434</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.320000</v>
+        <v>1143.32</v>
       </c>
       <c r="D18" s="1">
-        <v>-259.591000</v>
+        <v>-259.59100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>23073.219116</v>
       </c>
       <c r="G18" s="1">
-        <v>6.409228</v>
+        <v>6.4092279999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1164.120000</v>
+        <v>1164.1199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.263000</v>
+        <v>-217.26300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>23083.749710</v>
+        <v>23083.74971</v>
       </c>
       <c r="L18" s="1">
         <v>6.412153</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.060000</v>
+        <v>1192.06</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.367000</v>
+        <v>-150.36699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>23094.000033</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.415000</v>
+        <v>6.415</v>
       </c>
       <c r="R18" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.147000</v>
+        <v>-128.14699999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>23104.828699</v>
+        <v>23104.828699000002</v>
       </c>
       <c r="V18" s="1">
-        <v>6.418008</v>
+        <v>6.4180080000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.936000</v>
+        <v>-106.93600000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>23115.045781</v>
+        <v>23115.045781000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.420846</v>
+        <v>6.4208460000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1213.680000</v>
+        <v>1213.68</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.724500</v>
+        <v>-89.724500000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>23125.506386</v>
+        <v>23125.506386000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.423752</v>
+        <v>6.4237520000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.150000</v>
+        <v>1218.1500000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.198800</v>
+        <v>-85.198800000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>23136.331560</v>
+        <v>23136.331559999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.426759</v>
+        <v>6.4267589999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.350000</v>
+        <v>-88.35</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>23147.548585</v>
@@ -4713,330 +5129,330 @@
         <v>6.429875</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.071000</v>
+        <v>-100.071</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>23158.546379</v>
+        <v>23158.546378999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.432930</v>
+        <v>6.4329299999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.340000</v>
+        <v>1242.3399999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.220000</v>
+        <v>-119.22</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>23169.631996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.436009</v>
+        <v>6.4360090000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.662000</v>
+        <v>-136.66200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>23180.612399</v>
+        <v>23180.612399000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.439059</v>
+        <v>6.4390590000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG18" s="1">
-        <v>-218.275000</v>
+        <v>-218.27500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>23192.054112</v>
+        <v>23192.054112000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.442237</v>
+        <v>6.4422370000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.700000</v>
+        <v>1358.7</v>
       </c>
       <c r="BL18" s="1">
-        <v>-354.467000</v>
+        <v>-354.46699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>23202.880784</v>
+        <v>23202.880784000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.445245</v>
+        <v>6.4452449999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1472.220000</v>
+        <v>1472.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.689000</v>
+        <v>-575.68899999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>23213.450069</v>
+        <v>23213.450068999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.448181</v>
+        <v>6.4481809999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1603.440000</v>
+        <v>1603.44</v>
       </c>
       <c r="BV18" s="1">
-        <v>-825.459000</v>
+        <v>-825.45899999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>23224.381892</v>
+        <v>23224.381892000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.451217</v>
+        <v>6.4512169999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>23236.952467</v>
+        <v>23236.952466999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.454709</v>
+        <v>6.4547090000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>2165.410000</v>
+        <v>2165.41</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1757.870000</v>
+        <v>-1757.87</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>23063.842248</v>
+        <v>23063.842248000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.406623</v>
+        <v>6.4066229999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.610000</v>
+        <v>1143.6099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.485000</v>
+        <v>-259.48500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>23073.910050</v>
+        <v>23073.910049999999</v>
       </c>
       <c r="G19" s="1">
-        <v>6.409419</v>
+        <v>6.4094189999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.570000</v>
+        <v>1164.57</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.348000</v>
+        <v>-217.34800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>23084.087951</v>
+        <v>23084.087951000001</v>
       </c>
       <c r="L19" s="1">
-        <v>6.412247</v>
+        <v>6.4122469999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1191.820000</v>
+        <v>1191.82</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.526000</v>
+        <v>-150.52600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>23094.350176</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.415097</v>
+        <v>6.4150970000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>1199.610000</v>
+        <v>1199.6099999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.117000</v>
+        <v>-128.11699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>23105.171889</v>
+        <v>23105.171889000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.418103</v>
+        <v>6.4181030000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.040000</v>
+        <v>-107.04</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>23115.699508</v>
+        <v>23115.699508000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.421028</v>
+        <v>6.4210279999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.834700</v>
+        <v>-89.834699999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>23126.163078</v>
+        <v>23126.163078000001</v>
       </c>
       <c r="AF19" s="1">
         <v>6.423934</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.207500</v>
+        <v>-85.207499999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>23136.726899</v>
+        <v>23136.726899000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.426869</v>
+        <v>6.4268689999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.020000</v>
+        <v>1225.02</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.339900</v>
+        <v>-88.3399</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>23147.883881</v>
+        <v>23147.883881000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.429968</v>
+        <v>6.4299679999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.104000</v>
+        <v>-100.104</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>23158.914412</v>
+        <v>23158.914411999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.433032</v>
+        <v>6.4330319999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.220000</v>
+        <v>-119.22</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>23170.023837</v>
+        <v>23170.023837000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.436118</v>
+        <v>6.4361179999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.609000</v>
+        <v>-136.60900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>23180.977490</v>
+        <v>23180.977490000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.439160</v>
+        <v>6.4391600000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG19" s="1">
-        <v>-218.250000</v>
+        <v>-218.25</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>23192.476206</v>
+        <v>23192.476205999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.442355</v>
+        <v>6.4423550000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.700000</v>
+        <v>1358.7</v>
       </c>
       <c r="BL19" s="1">
-        <v>-354.421000</v>
+        <v>-354.42099999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>23203.274608</v>
@@ -5045,165 +5461,165 @@
         <v>6.445354</v>
       </c>
       <c r="BP19" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.709000</v>
+        <v>-575.70899999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>23213.882582</v>
+        <v>23213.882581999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.448301</v>
+        <v>6.4483009999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1603.310000</v>
+        <v>1603.31</v>
       </c>
       <c r="BV19" s="1">
-        <v>-825.582000</v>
+        <v>-825.58199999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>23224.801971</v>
+        <v>23224.801971000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.451334</v>
+        <v>6.4513340000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.080000</v>
+        <v>-1097.08</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>23237.470290</v>
+        <v>23237.470290000001</v>
       </c>
       <c r="CD19" s="1">
         <v>6.454853</v>
       </c>
       <c r="CE19" s="1">
-        <v>2166.950000</v>
+        <v>2166.9499999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1758.690000</v>
+        <v>-1758.69</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>23064.175561</v>
       </c>
       <c r="B20" s="1">
-        <v>6.406715</v>
+        <v>6.4067150000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.510000</v>
+        <v>1143.51</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.721000</v>
+        <v>-259.721</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>23074.250828</v>
       </c>
       <c r="G20" s="1">
-        <v>6.409514</v>
+        <v>6.4095139999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.480000</v>
+        <v>1164.48</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.149000</v>
+        <v>-217.149</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>23084.444077</v>
       </c>
       <c r="L20" s="1">
-        <v>6.412346</v>
+        <v>6.4123460000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>1192.060000</v>
+        <v>1192.06</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.517000</v>
+        <v>-150.517</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>23094.700351</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.415195</v>
+        <v>6.4151949999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1199.600000</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.109000</v>
+        <v>-128.10900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>23105.827637</v>
+        <v>23105.827636999999</v>
       </c>
       <c r="V20" s="1">
         <v>6.418285</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.650000</v>
+        <v>1206.6500000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.015000</v>
+        <v>-107.015</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>23116.092307</v>
+        <v>23116.092306999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.421137</v>
+        <v>6.4211369999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.750000</v>
+        <v>1213.75</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.731900</v>
+        <v>-89.731899999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>23126.536070</v>
+        <v>23126.536069999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.424038</v>
+        <v>6.4240380000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.190000</v>
+        <v>1218.19</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.175100</v>
+        <v>-85.1751</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>23137.074599</v>
@@ -5212,1418 +5628,1418 @@
         <v>6.426965</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.020000</v>
+        <v>1225.02</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.334300</v>
+        <v>-88.334299999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>23148.237703</v>
+        <v>23148.237702999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.430066</v>
+        <v>6.4300660000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.080000</v>
+        <v>-100.08</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>23159.279963</v>
+        <v>23159.279963000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.433133</v>
+        <v>6.4331329999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.235000</v>
+        <v>-119.235</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>23170.443947</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.436234</v>
+        <v>6.4362339999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.632000</v>
+        <v>-136.63200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>23181.398594</v>
+        <v>23181.398593999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.439277</v>
+        <v>6.4392769999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1289.820000</v>
+        <v>1289.82</v>
       </c>
       <c r="BG20" s="1">
-        <v>-218.256000</v>
+        <v>-218.256</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>23192.828398</v>
+        <v>23192.828398000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.442452</v>
+        <v>6.4424520000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL20" s="1">
-        <v>-354.375000</v>
+        <v>-354.375</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>23203.696208</v>
+        <v>23203.696208000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.445471</v>
+        <v>6.4454710000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.714000</v>
+        <v>-575.71400000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>23214.310129</v>
+        <v>23214.310129000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.448419</v>
+        <v>6.4484190000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1603.290000</v>
+        <v>1603.29</v>
       </c>
       <c r="BV20" s="1">
-        <v>-825.692000</v>
+        <v>-825.69200000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>23225.225554</v>
+        <v>23225.225554000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.451452</v>
+        <v>6.4514519999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.400000</v>
+        <v>1753.4</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>23237.988114</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.454997</v>
+        <v>6.4549969999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>2168.040000</v>
+        <v>2168.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1757.430000</v>
+        <v>-1757.43</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>23064.527255</v>
+        <v>23064.527255000001</v>
       </c>
       <c r="B21" s="1">
-        <v>6.406813</v>
+        <v>6.4068129999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.400000</v>
+        <v>1143.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-259.630000</v>
+        <v>-259.63</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>23074.596010</v>
+        <v>23074.596010000001</v>
       </c>
       <c r="G21" s="1">
-        <v>6.409610</v>
+        <v>6.4096099999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1164.530000</v>
+        <v>1164.53</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.720000</v>
+        <v>-217.72</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>23085.093341</v>
       </c>
       <c r="L21" s="1">
-        <v>6.412526</v>
+        <v>6.4125259999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.990000</v>
+        <v>1191.99</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.271000</v>
+        <v>-150.27099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>23095.350641</v>
+        <v>23095.350641000001</v>
       </c>
       <c r="Q21" s="1">
         <v>6.415375</v>
       </c>
       <c r="R21" s="1">
-        <v>1199.670000</v>
+        <v>1199.67</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.033000</v>
+        <v>-128.03299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>23106.201088</v>
+        <v>23106.201088000002</v>
       </c>
       <c r="V21" s="1">
-        <v>6.418389</v>
+        <v>6.4183890000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.990000</v>
+        <v>-106.99</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>23116.440515</v>
+        <v>23116.440514999998</v>
       </c>
       <c r="AA21" s="1">
         <v>6.421233</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.770000</v>
+        <v>1213.77</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.793000</v>
+        <v>-89.793000000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>23126.878806</v>
+        <v>23126.878806000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.424133</v>
+        <v>6.4241330000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.167400</v>
+        <v>-85.167400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>23137.419287</v>
+        <v>23137.419287000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.427061</v>
+        <v>6.4270610000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.331500</v>
+        <v>-88.331500000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>23148.659129</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.430183</v>
+        <v>6.4301830000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.102000</v>
+        <v>-100.102</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>23159.703200</v>
+        <v>23159.7032</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.433251</v>
+        <v>6.4332510000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.235000</v>
+        <v>-119.235</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>23170.737574</v>
+        <v>23170.737573999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.436316</v>
+        <v>6.4363159999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.637000</v>
+        <v>-136.637</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>23181.701303</v>
+        <v>23181.701303000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.439361</v>
+        <v>6.4393609999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1289.850000</v>
+        <v>1289.8499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-218.261000</v>
+        <v>-218.261</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>23193.205853</v>
+        <v>23193.205852999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.442557</v>
+        <v>6.4425569999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.700000</v>
+        <v>1358.7</v>
       </c>
       <c r="BL21" s="1">
-        <v>-354.394000</v>
+        <v>-354.39400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>23204.097472</v>
+        <v>23204.097472000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.445583</v>
+        <v>6.4455830000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.661000</v>
+        <v>-575.66099999999994</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>23214.724785</v>
+        <v>23214.724784999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.448535</v>
+        <v>6.4485349999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1603.140000</v>
+        <v>1603.14</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.712000</v>
+        <v>-825.71199999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>23225.649138</v>
+        <v>23225.649138000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.451569</v>
+        <v>6.4515690000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.400000</v>
+        <v>1753.4</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1097.040000</v>
+        <v>-1097.04</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>23238.503985</v>
+        <v>23238.503984999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.455140</v>
+        <v>6.4551400000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2168.120000</v>
+        <v>2168.12</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1758.630000</v>
+        <v>-1758.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>23065.174998</v>
+        <v>23065.174997999999</v>
       </c>
       <c r="B22" s="1">
-        <v>6.406993</v>
+        <v>6.4069929999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.430000</v>
+        <v>1143.43</v>
       </c>
       <c r="D22" s="1">
-        <v>-259.701000</v>
+        <v>-259.70100000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>23075.242298</v>
+        <v>23075.242298000001</v>
       </c>
       <c r="G22" s="1">
-        <v>6.409790</v>
+        <v>6.4097900000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.260000</v>
+        <v>1165.26</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.796000</v>
+        <v>-217.79599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>23085.481212</v>
+        <v>23085.481211999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.412634</v>
+        <v>6.4126339999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1191.900000</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.739000</v>
+        <v>-150.739</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>23095.742942</v>
+        <v>23095.742942000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.415484</v>
+        <v>6.4154840000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1199.690000</v>
+        <v>1199.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.121000</v>
+        <v>-128.12100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>23106.547327</v>
       </c>
       <c r="V22" s="1">
-        <v>6.418485</v>
+        <v>6.4184850000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.992000</v>
+        <v>-106.992</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>23116.789186</v>
+        <v>23116.789186000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.421330</v>
+        <v>6.4213300000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.700700</v>
+        <v>-89.700699999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>23127.225012</v>
+        <v>23127.225011999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.424229</v>
+        <v>6.4242290000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.168100</v>
+        <v>-85.168099999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>23137.836422</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.427177</v>
+        <v>6.4271770000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.020000</v>
+        <v>1225.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.374700</v>
+        <v>-88.374700000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>23148.956728</v>
+        <v>23148.956728000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.430266</v>
+        <v>6.4302659999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.089000</v>
+        <v>-100.089</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>23160.007594</v>
+        <v>23160.007593999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.433335</v>
+        <v>6.4333349999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.241000</v>
+        <v>-119.241</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>23171.099163</v>
+        <v>23171.099162999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.436416</v>
+        <v>6.4364160000000004</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.675000</v>
+        <v>-136.67500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>23182.063693</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.439462</v>
+        <v>6.4394619999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1289.840000</v>
+        <v>1289.8399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-218.251000</v>
+        <v>-218.251</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>23193.583791</v>
+        <v>23193.583791000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.442662</v>
+        <v>6.4426620000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.730000</v>
+        <v>1358.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-354.391000</v>
+        <v>-354.39100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>23204.513646</v>
+        <v>23204.513645999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.445698</v>
+        <v>6.4456980000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.671000</v>
+        <v>-575.67100000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>23215.154288</v>
+        <v>23215.154288000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.448654</v>
+        <v>6.4486540000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1603.110000</v>
+        <v>1603.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.779000</v>
+        <v>-825.779</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>23226.064000</v>
+        <v>23226.063999999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.451684</v>
+        <v>6.4516840000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.150000</v>
+        <v>-1097.1500000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>23239.059507</v>
+        <v>23239.059507000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.455294</v>
+        <v>6.4552940000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>2166.200000</v>
+        <v>2166.1999999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1758.860000</v>
+        <v>-1758.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>23065.551958</v>
       </c>
       <c r="B23" s="1">
-        <v>6.407098</v>
+        <v>6.4070980000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.560000</v>
+        <v>1143.56</v>
       </c>
       <c r="D23" s="1">
-        <v>-259.452000</v>
+        <v>-259.452</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>23075.630699</v>
+        <v>23075.630699000001</v>
       </c>
       <c r="G23" s="1">
         <v>6.409897</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.612000</v>
+        <v>-217.61199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>23085.824971</v>
+        <v>23085.824970999998</v>
       </c>
       <c r="L23" s="1">
-        <v>6.412729</v>
+        <v>6.4127289999999997</v>
       </c>
       <c r="M23" s="1">
-        <v>1191.930000</v>
+        <v>1191.93</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.628000</v>
+        <v>-150.62799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>23096.094110</v>
+        <v>23096.094109999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.415582</v>
+        <v>6.4155819999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>1199.690000</v>
+        <v>1199.69</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.129000</v>
+        <v>-128.12899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>23106.896975</v>
       </c>
       <c r="V23" s="1">
-        <v>6.418582</v>
+        <v>6.4185819999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.910000</v>
+        <v>-106.91</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>23117.200899</v>
+        <v>23117.200898999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.421445</v>
+        <v>6.4214450000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.609100</v>
+        <v>-89.609099999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>23127.655077</v>
+        <v>23127.655076999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.424349</v>
+        <v>6.4243490000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.192100</v>
+        <v>-85.192099999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>23138.132534</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.427259</v>
+        <v>6.4272590000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.344200</v>
+        <v>-88.344200000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>23149.315831</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.430366</v>
+        <v>6.4303660000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.071000</v>
+        <v>-100.071</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>23160.373641</v>
+        <v>23160.373640999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.433437</v>
+        <v>6.4334369999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.240000</v>
+        <v>-119.24</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>23171.455755</v>
+        <v>23171.455754999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>6.436515</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.603000</v>
+        <v>-136.60300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>23182.765531</v>
+        <v>23182.765531000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.439657</v>
+        <v>6.4396570000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG23" s="1">
-        <v>-218.278000</v>
+        <v>-218.27799999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>23194.331244</v>
+        <v>23194.331244000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.442870</v>
+        <v>6.4428700000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.690000</v>
+        <v>1358.69</v>
       </c>
       <c r="BL23" s="1">
-        <v>-354.440000</v>
+        <v>-354.44</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>23204.911939</v>
+        <v>23204.911939000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.445809</v>
+        <v>6.4458089999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.629000</v>
+        <v>-575.62900000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>23215.581581</v>
+        <v>23215.581580999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.448773</v>
+        <v>6.4487730000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1602.990000</v>
+        <v>1602.99</v>
       </c>
       <c r="BV23" s="1">
-        <v>-825.839000</v>
+        <v>-825.83900000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>23226.520145</v>
+        <v>23226.520144999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.451811</v>
+        <v>6.4518110000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.430000</v>
+        <v>1753.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.990000</v>
+        <v>-1096.99</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>23239.888288</v>
+        <v>23239.888287999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.455525</v>
+        <v>6.4555249999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>2167.560000</v>
+        <v>2167.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1758.150000</v>
+        <v>-1758.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>23065.894942</v>
+        <v>23065.894941999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.407193</v>
+        <v>6.4071930000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.540000</v>
+        <v>1143.54</v>
       </c>
       <c r="D24" s="1">
-        <v>-259.736000</v>
+        <v>-259.73599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>23075.971416</v>
       </c>
       <c r="G24" s="1">
-        <v>6.409992</v>
+        <v>6.4099919999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.140000</v>
+        <v>1165.1400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.353000</v>
+        <v>-217.35300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>23086.173132</v>
       </c>
       <c r="L24" s="1">
-        <v>6.412826</v>
+        <v>6.4128259999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1191.900000</v>
+        <v>1191.9000000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.138000</v>
+        <v>-150.13800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>23096.704230</v>
+        <v>23096.704229999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.415751</v>
+        <v>6.4157510000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1199.620000</v>
+        <v>1199.6199999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.168000</v>
+        <v>-128.16800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>23107.319600</v>
+        <v>23107.319599999999</v>
       </c>
       <c r="V24" s="1">
-        <v>6.418700</v>
+        <v>6.4187000000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.983000</v>
+        <v>-106.983</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>23117.486561</v>
+        <v>23117.486561000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.421524</v>
+        <v>6.4215239999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.757900</v>
+        <v>-89.757900000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>23127.934291</v>
+        <v>23127.934291000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.424426</v>
+        <v>6.4244260000000004</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.240000</v>
+        <v>1218.24</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.196000</v>
+        <v>-85.195999999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>23138.484229</v>
+        <v>23138.484229000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.427357</v>
+        <v>6.4273569999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.325300</v>
+        <v>-88.325299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>23149.677415</v>
+        <v>23149.677414999998</v>
       </c>
       <c r="AP24" s="1">
         <v>6.430466</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.700000</v>
+        <v>1232.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.113000</v>
+        <v>-100.113</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>23160.736535</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.433538</v>
+        <v>6.4335380000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>23172.175945</v>
+        <v>23172.175944999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.436716</v>
+        <v>6.4367159999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.633000</v>
+        <v>-136.63300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>23183.173776</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.439770</v>
+        <v>6.4397700000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1289.850000</v>
+        <v>1289.8499999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-218.286000</v>
+        <v>-218.286</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>23194.706219</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.442974</v>
+        <v>6.4429740000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.750000</v>
+        <v>1358.75</v>
       </c>
       <c r="BL24" s="1">
-        <v>-354.438000</v>
+        <v>-354.43799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>23205.334493</v>
+        <v>23205.334492999998</v>
       </c>
       <c r="BO24" s="1">
         <v>6.445926</v>
       </c>
       <c r="BP24" s="1">
-        <v>1472.220000</v>
+        <v>1472.22</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.655000</v>
+        <v>-575.65499999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>23215.992528</v>
+        <v>23215.992527999999</v>
       </c>
       <c r="BT24" s="1">
         <v>6.448887</v>
       </c>
       <c r="BU24" s="1">
-        <v>1602.900000</v>
+        <v>1602.9</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.836000</v>
+        <v>-825.83600000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>23227.274529</v>
+        <v>23227.274528999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.452021</v>
+        <v>6.4520210000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.060000</v>
+        <v>-1097.06</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>23240.138272</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.455594</v>
+        <v>6.4555939999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>2166.680000</v>
+        <v>2166.6799999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1756.830000</v>
+        <v>-1756.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>23066.238949</v>
+        <v>23066.238948999999</v>
       </c>
       <c r="B25" s="1">
-        <v>6.407289</v>
+        <v>6.4072889999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.350000</v>
+        <v>1143.3499999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-259.472000</v>
+        <v>-259.47199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>23076.319608</v>
+        <v>23076.319608000002</v>
       </c>
       <c r="G25" s="1">
-        <v>6.410089</v>
+        <v>6.4100890000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.140000</v>
+        <v>1165.1400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.062000</v>
+        <v>-217.06200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>23086.593078</v>
+        <v>23086.593078000002</v>
       </c>
       <c r="L25" s="1">
-        <v>6.412943</v>
+        <v>6.4129430000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.070000</v>
+        <v>1192.07</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.473000</v>
+        <v>-150.47300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>23097.139181</v>
+        <v>23097.139180999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.415872</v>
+        <v>6.4158720000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1199.640000</v>
+        <v>1199.6400000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.060000</v>
+        <v>-128.06</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>23107.601294</v>
       </c>
       <c r="V25" s="1">
-        <v>6.418778</v>
+        <v>6.4187779999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.960000</v>
+        <v>-106.96</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>23117.834258</v>
+        <v>23117.834257999999</v>
       </c>
       <c r="AA25" s="1">
         <v>6.421621</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.892100</v>
+        <v>-89.892099999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>23128.277524</v>
+        <v>23128.277524000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.424522</v>
+        <v>6.4245219999999996</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.210000</v>
+        <v>1218.21</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.193400</v>
+        <v>-85.193399999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>23138.830405</v>
+        <v>23138.830405000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.427453</v>
+        <v>6.4274529999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.315500</v>
+        <v>-88.3155</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>23150.398103</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.430666</v>
+        <v>6.4306660000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.097000</v>
+        <v>-100.09699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>23161.475751</v>
+        <v>23161.475751000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.433743</v>
+        <v>6.4337429999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.350000</v>
+        <v>1242.3499999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.231000</v>
+        <v>-119.23099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>23172.535544</v>
+        <v>23172.535543999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.436815</v>
+        <v>6.4368150000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.633000</v>
+        <v>-136.63300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>23183.565578</v>
+        <v>23183.565578000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.439879</v>
+        <v>6.4398790000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1289.860000</v>
+        <v>1289.8599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-218.240000</v>
+        <v>-218.24</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>23195.082683</v>
+        <v>23195.082683000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>6.443079</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.690000</v>
+        <v>1358.69</v>
       </c>
       <c r="BL25" s="1">
-        <v>-354.456000</v>
+        <v>-354.45600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>23206.038348</v>
+        <v>23206.038347999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.446122</v>
+        <v>6.4461219999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1472.230000</v>
+        <v>1472.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.693000</v>
+        <v>-575.69299999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>23216.726606</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.449091</v>
+        <v>6.4490910000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1602.770000</v>
+        <v>1602.77</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.756000</v>
+        <v>-825.75599999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>23227.419392</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.452061</v>
+        <v>6.4520609999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.320000</v>
+        <v>1753.32</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.020000</v>
+        <v>-1097.02</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>23240.673487</v>
@@ -6632,272 +7048,273 @@
         <v>6.455743</v>
       </c>
       <c r="CE25" s="1">
-        <v>2165.980000</v>
+        <v>2165.98</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1758.700000</v>
+        <v>-1758.7</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>23066.659524</v>
+        <v>23066.659523999999</v>
       </c>
       <c r="B26" s="1">
-        <v>6.407405</v>
+        <v>6.4074049999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.450000</v>
+        <v>1143.45</v>
       </c>
       <c r="D26" s="1">
-        <v>-259.356000</v>
+        <v>-259.35599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>23076.737773</v>
+        <v>23076.737773000001</v>
       </c>
       <c r="G26" s="1">
-        <v>6.410205</v>
+        <v>6.4102050000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.470000</v>
+        <v>1165.47</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.492000</v>
+        <v>-216.49199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>23086.881915</v>
+        <v>23086.881915000002</v>
       </c>
       <c r="L26" s="1">
-        <v>6.413023</v>
+        <v>6.4130229999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1191.960000</v>
+        <v>1191.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.750000</v>
+        <v>-150.75</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>23097.488396</v>
+        <v>23097.488396000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.415969</v>
+        <v>6.4159689999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.104000</v>
+        <v>-128.10400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>23107.944030</v>
+        <v>23107.944029999999</v>
       </c>
       <c r="V26" s="1">
-        <v>6.418873</v>
+        <v>6.4188729999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.965000</v>
+        <v>-106.965</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>23118.179968</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.421717</v>
+        <v>6.4217170000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.847200</v>
+        <v>-89.847200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>23128.622243</v>
+        <v>23128.622243000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.424617</v>
+        <v>6.4246169999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.157600</v>
+        <v>-85.157600000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>23139.530756</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.427647</v>
+        <v>6.4276470000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.010000</v>
+        <v>1225.01</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.331800</v>
+        <v>-88.331800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>23150.757701</v>
+        <v>23150.757700999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.430766</v>
+        <v>6.4307660000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.069000</v>
+        <v>-100.069</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>23161.858695</v>
+        <v>23161.858694999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.433850</v>
+        <v>6.4338499999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.320000</v>
+        <v>1242.32</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.271000</v>
+        <v>-119.271</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>23172.892200</v>
+        <v>23172.892199999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.436915</v>
+        <v>6.4369149999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.671000</v>
+        <v>-136.67099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>23184.230218</v>
+        <v>23184.230218000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.440064</v>
+        <v>6.4400639999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1289.830000</v>
+        <v>1289.83</v>
       </c>
       <c r="BG26" s="1">
-        <v>-218.249000</v>
+        <v>-218.249</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>23195.762698</v>
+        <v>23195.762697999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.443267</v>
+        <v>6.4432669999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.710000</v>
+        <v>1358.71</v>
       </c>
       <c r="BL26" s="1">
-        <v>-354.393000</v>
+        <v>-354.39299999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>23206.149089</v>
+        <v>23206.149088999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.446153</v>
+        <v>6.4461529999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1472.200000</v>
+        <v>1472.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.746000</v>
+        <v>-575.74599999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>23216.850110</v>
+        <v>23216.850109999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.449125</v>
+        <v>6.4491250000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1602.720000</v>
+        <v>1602.72</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.755000</v>
+        <v>-825.755</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>23227.837025</v>
+        <v>23227.837025000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.452177</v>
+        <v>6.4521769999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.330000</v>
+        <v>1753.33</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.100000</v>
+        <v>-1097.0999999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>23241.212734</v>
+        <v>23241.212734000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.455892</v>
+        <v>6.4558920000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>2167.840000</v>
+        <v>2167.84</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1757.110000</v>
+        <v>-1757.11</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>